--- a/개인 작업 폴더/정하경/컨펌 폴더/마기를 머금은 논산/[설정]_논산_꽃뱀_컨셉기획서_v0.01.xlsx
+++ b/개인 작업 폴더/정하경/컨펌 폴더/마기를 머금은 논산/[설정]_논산_꽃뱀_컨셉기획서_v0.01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\컨펌 폴더\마기를 머금은 논산\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Yaho\개인 작업 폴더\정하경\컨펌 폴더\마기를 머금은 논산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55E4921-67C6-46FD-9A8E-DA40E20C50DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03143F19-1D36-40B2-906F-30C7520FCF24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2F3D59DB-E2B7-4A2E-9E4B-A7D439020835}"/>
   </bookViews>
@@ -121,14 +121,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지구로 넘어온 후 논산의 농약을 먹고 정처 없이 논산을 떠도는 뱀 몬스터이다.
-머리에 꽃을 달고 하염 없이 스테이지를 맴돈다.
-"뱀…뱀….뱀…."</t>
+    <t>논산에는 원래 뱀이 많다. 일반몬스터에 뱀이 들어가도 전혀 이상하지 않을 것 같다.
+꽃뱀, 일반 뱀, 초록 뱀, 흰색 뱀.. 등 색깔만 변경하면 얼마든지 다른 뱀 종류로 변경이 가능하다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>논산에는 원래 뱀이 많다. 일반몬스터에 뱀이 들어가도 전혀 이상하지 않을 것 같다.
-꽃뱀, 일반 뱀, 초록 뱀, 흰색 뱀.. 등 색깔만 변경하면 얼마든지 다른 뱀 종류로 변경이 가능하다.</t>
+    <t>지구로 넘어온 후 논산의 농약을 먹고 정처 없이 논산을 떠도는 뱀 몬스터이다.
+머리에 꽃을 달고 하염 없이 스테이지를 맴돈다.
+"뱀…배앰….….뱀…."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,6 +665,45 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -687,45 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -30178,8 +30178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68C453B-BEE0-4E2B-A5A3-7E1F6AF40844}">
   <dimension ref="B2:AW44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BG17" sqref="BG17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AY19" sqref="AY19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30195,44 +30195,44 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
       <c r="AQ2" s="6"/>
       <c r="AR2" s="6"/>
       <c r="AS2" s="6"/>
@@ -30246,42 +30246,42 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="56"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48"/>
       <c r="AQ3" s="6"/>
       <c r="AR3" s="6"/>
       <c r="AS3" s="6"/>
@@ -30295,42 +30295,42 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="57"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
       <c r="AS4" s="4"/>
@@ -30341,109 +30341,109 @@
     <row r="5" spans="2:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="52" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
       <c r="O6" s="13"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="47" t="s">
+      <c r="Q6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="52" t="s">
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
       <c r="AD6" s="16"/>
       <c r="AE6" s="17"/>
       <c r="AF6" s="9"/>
-      <c r="AG6" s="58" t="s">
+      <c r="AG6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="AH6" s="58"/>
-      <c r="AI6" s="58"/>
-      <c r="AJ6" s="58"/>
-      <c r="AK6" s="58"/>
-      <c r="AL6" s="58"/>
-      <c r="AM6" s="58"/>
-      <c r="AN6" s="58"/>
-      <c r="AO6" s="58"/>
-      <c r="AP6" s="58"/>
-      <c r="AQ6" s="58"/>
-      <c r="AR6" s="58"/>
-      <c r="AS6" s="58"/>
-      <c r="AT6" s="58"/>
-      <c r="AU6" s="58"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="50"/>
+      <c r="AK6" s="50"/>
+      <c r="AL6" s="50"/>
+      <c r="AM6" s="50"/>
+      <c r="AN6" s="50"/>
+      <c r="AO6" s="50"/>
+      <c r="AP6" s="50"/>
+      <c r="AQ6" s="50"/>
+      <c r="AR6" s="50"/>
+      <c r="AS6" s="50"/>
+      <c r="AT6" s="50"/>
+      <c r="AU6" s="50"/>
       <c r="AV6" s="10"/>
       <c r="AW6" s="8"/>
     </row>
     <row r="7" spans="2:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
       <c r="O7" s="13"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
       <c r="AD7" s="23"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="11"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="59"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="59"/>
-      <c r="AT7" s="59"/>
-      <c r="AU7" s="59"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="51"/>
+      <c r="AJ7" s="51"/>
+      <c r="AK7" s="51"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="51"/>
+      <c r="AP7" s="51"/>
+      <c r="AQ7" s="51"/>
+      <c r="AR7" s="51"/>
+      <c r="AS7" s="51"/>
+      <c r="AT7" s="51"/>
+      <c r="AU7" s="51"/>
       <c r="AV7" s="12"/>
       <c r="AW7" s="8"/>
     </row>
@@ -30496,40 +30496,40 @@
     </row>
     <row r="9" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="52" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
       <c r="O9" s="13"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="47" t="s">
+      <c r="Q9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="52" t="s">
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="13"/>
@@ -30552,32 +30552,32 @@
     </row>
     <row r="10" spans="2:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
       <c r="O10" s="13"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="13"/>
@@ -30621,36 +30621,36 @@
     </row>
     <row r="12" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="44" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="20"/>
       <c r="AF12" s="13"/>
@@ -30673,32 +30673,32 @@
     </row>
     <row r="13" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="20"/>
       <c r="AF13" s="13"/>
@@ -30721,32 +30721,32 @@
     </row>
     <row r="14" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="20"/>
       <c r="AF14" s="13"/>
@@ -30769,32 +30769,32 @@
     </row>
     <row r="15" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="20"/>
       <c r="AF15" s="13"/>
@@ -30817,32 +30817,32 @@
     </row>
     <row r="16" spans="2:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="14"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="20"/>
       <c r="AF16" s="13"/>
@@ -30886,36 +30886,36 @@
     </row>
     <row r="18" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="44" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="20"/>
       <c r="AF18" s="13"/>
@@ -30938,32 +30938,32 @@
     </row>
     <row r="19" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="20"/>
       <c r="AF19" s="13"/>
@@ -30986,32 +30986,32 @@
     </row>
     <row r="20" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="51"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
       <c r="AD20" s="22"/>
       <c r="AE20" s="20"/>
       <c r="AF20" s="13"/>
@@ -31034,32 +31034,32 @@
     </row>
     <row r="21" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="51"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
       <c r="AD21" s="22"/>
       <c r="AE21" s="20"/>
       <c r="AF21" s="13"/>
@@ -31082,32 +31082,32 @@
     </row>
     <row r="22" spans="2:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="14"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="54"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="46"/>
       <c r="AD22" s="21"/>
       <c r="AE22" s="18"/>
       <c r="AF22" s="11"/>
@@ -31131,995 +31131,1003 @@
     <row r="23" spans="2:48" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="43" t="s">
-        <v>24</v>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="56" t="s">
+        <v>25</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="44"/>
-      <c r="AI24" s="44"/>
-      <c r="AJ24" s="44"/>
-      <c r="AK24" s="44"/>
-      <c r="AL24" s="44"/>
-      <c r="AM24" s="44"/>
-      <c r="AN24" s="44"/>
-      <c r="AO24" s="44"/>
-      <c r="AP24" s="44"/>
-      <c r="AQ24" s="44"/>
-      <c r="AR24" s="44"/>
-      <c r="AS24" s="44"/>
-      <c r="AT24" s="44"/>
-      <c r="AU24" s="44"/>
-      <c r="AV24" s="44"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="57"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="57"/>
+      <c r="AG24" s="57"/>
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="57"/>
+      <c r="AJ24" s="57"/>
+      <c r="AK24" s="57"/>
+      <c r="AL24" s="57"/>
+      <c r="AM24" s="57"/>
+      <c r="AN24" s="57"/>
+      <c r="AO24" s="57"/>
+      <c r="AP24" s="57"/>
+      <c r="AQ24" s="57"/>
+      <c r="AR24" s="57"/>
+      <c r="AS24" s="57"/>
+      <c r="AT24" s="57"/>
+      <c r="AU24" s="57"/>
+      <c r="AV24" s="57"/>
     </row>
     <row r="25" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="44"/>
-      <c r="AH25" s="44"/>
-      <c r="AI25" s="44"/>
-      <c r="AJ25" s="44"/>
-      <c r="AK25" s="44"/>
-      <c r="AL25" s="44"/>
-      <c r="AM25" s="44"/>
-      <c r="AN25" s="44"/>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="44"/>
-      <c r="AQ25" s="44"/>
-      <c r="AR25" s="44"/>
-      <c r="AS25" s="44"/>
-      <c r="AT25" s="44"/>
-      <c r="AU25" s="44"/>
-      <c r="AV25" s="44"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="57"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+      <c r="AJ25" s="57"/>
+      <c r="AK25" s="57"/>
+      <c r="AL25" s="57"/>
+      <c r="AM25" s="57"/>
+      <c r="AN25" s="57"/>
+      <c r="AO25" s="57"/>
+      <c r="AP25" s="57"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
+      <c r="AU25" s="57"/>
+      <c r="AV25" s="57"/>
     </row>
     <row r="26" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="44"/>
-      <c r="AM26" s="44"/>
-      <c r="AN26" s="44"/>
-      <c r="AO26" s="44"/>
-      <c r="AP26" s="44"/>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="44"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="44"/>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="44"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="57"/>
+      <c r="AN26" s="57"/>
+      <c r="AO26" s="57"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="57"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
+      <c r="AU26" s="57"/>
+      <c r="AV26" s="57"/>
     </row>
     <row r="27" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
-      <c r="AK27" s="44"/>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="44"/>
-      <c r="AN27" s="44"/>
-      <c r="AO27" s="44"/>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="44"/>
-      <c r="AR27" s="44"/>
-      <c r="AS27" s="44"/>
-      <c r="AT27" s="44"/>
-      <c r="AU27" s="44"/>
-      <c r="AV27" s="44"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="57"/>
+      <c r="AJ27" s="57"/>
+      <c r="AK27" s="57"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="57"/>
+      <c r="AO27" s="57"/>
+      <c r="AP27" s="57"/>
+      <c r="AQ27" s="57"/>
+      <c r="AR27" s="57"/>
+      <c r="AS27" s="57"/>
+      <c r="AT27" s="57"/>
+      <c r="AU27" s="57"/>
+      <c r="AV27" s="57"/>
     </row>
     <row r="28" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
-      <c r="AM28" s="44"/>
-      <c r="AN28" s="44"/>
-      <c r="AO28" s="44"/>
-      <c r="AP28" s="44"/>
-      <c r="AQ28" s="44"/>
-      <c r="AR28" s="44"/>
-      <c r="AS28" s="44"/>
-      <c r="AT28" s="44"/>
-      <c r="AU28" s="44"/>
-      <c r="AV28" s="44"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
     </row>
     <row r="29" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="44"/>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="44"/>
-      <c r="AK29" s="44"/>
-      <c r="AL29" s="44"/>
-      <c r="AM29" s="44"/>
-      <c r="AN29" s="44"/>
-      <c r="AO29" s="44"/>
-      <c r="AP29" s="44"/>
-      <c r="AQ29" s="44"/>
-      <c r="AR29" s="44"/>
-      <c r="AS29" s="44"/>
-      <c r="AT29" s="44"/>
-      <c r="AU29" s="44"/>
-      <c r="AV29" s="44"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="57"/>
+      <c r="AC29" s="57"/>
+      <c r="AD29" s="57"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="57"/>
+      <c r="AJ29" s="57"/>
+      <c r="AK29" s="57"/>
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="57"/>
+      <c r="AN29" s="57"/>
+      <c r="AO29" s="57"/>
+      <c r="AP29" s="57"/>
+      <c r="AQ29" s="57"/>
+      <c r="AR29" s="57"/>
+      <c r="AS29" s="57"/>
+      <c r="AT29" s="57"/>
+      <c r="AU29" s="57"/>
+      <c r="AV29" s="57"/>
     </row>
     <row r="30" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="44"/>
-      <c r="AB30" s="44"/>
-      <c r="AC30" s="44"/>
-      <c r="AD30" s="44"/>
-      <c r="AE30" s="44"/>
-      <c r="AF30" s="44"/>
-      <c r="AG30" s="44"/>
-      <c r="AH30" s="44"/>
-      <c r="AI30" s="44"/>
-      <c r="AJ30" s="44"/>
-      <c r="AK30" s="44"/>
-      <c r="AL30" s="44"/>
-      <c r="AM30" s="44"/>
-      <c r="AN30" s="44"/>
-      <c r="AO30" s="44"/>
-      <c r="AP30" s="44"/>
-      <c r="AQ30" s="44"/>
-      <c r="AR30" s="44"/>
-      <c r="AS30" s="44"/>
-      <c r="AT30" s="44"/>
-      <c r="AU30" s="44"/>
-      <c r="AV30" s="44"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="57"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="57"/>
+      <c r="AH30" s="57"/>
+      <c r="AI30" s="57"/>
+      <c r="AJ30" s="57"/>
+      <c r="AK30" s="57"/>
+      <c r="AL30" s="57"/>
+      <c r="AM30" s="57"/>
+      <c r="AN30" s="57"/>
+      <c r="AO30" s="57"/>
+      <c r="AP30" s="57"/>
+      <c r="AQ30" s="57"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
+      <c r="AT30" s="57"/>
+      <c r="AU30" s="57"/>
+      <c r="AV30" s="57"/>
     </row>
     <row r="31" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="44"/>
-      <c r="AH31" s="44"/>
-      <c r="AI31" s="44"/>
-      <c r="AJ31" s="44"/>
-      <c r="AK31" s="44"/>
-      <c r="AL31" s="44"/>
-      <c r="AM31" s="44"/>
-      <c r="AN31" s="44"/>
-      <c r="AO31" s="44"/>
-      <c r="AP31" s="44"/>
-      <c r="AQ31" s="44"/>
-      <c r="AR31" s="44"/>
-      <c r="AS31" s="44"/>
-      <c r="AT31" s="44"/>
-      <c r="AU31" s="44"/>
-      <c r="AV31" s="44"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="57"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="57"/>
+      <c r="AH31" s="57"/>
+      <c r="AI31" s="57"/>
+      <c r="AJ31" s="57"/>
+      <c r="AK31" s="57"/>
+      <c r="AL31" s="57"/>
+      <c r="AM31" s="57"/>
+      <c r="AN31" s="57"/>
+      <c r="AO31" s="57"/>
+      <c r="AP31" s="57"/>
+      <c r="AQ31" s="57"/>
+      <c r="AR31" s="57"/>
+      <c r="AS31" s="57"/>
+      <c r="AT31" s="57"/>
+      <c r="AU31" s="57"/>
+      <c r="AV31" s="57"/>
     </row>
     <row r="32" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="44"/>
-      <c r="AE32" s="44"/>
-      <c r="AF32" s="44"/>
-      <c r="AG32" s="44"/>
-      <c r="AH32" s="44"/>
-      <c r="AI32" s="44"/>
-      <c r="AJ32" s="44"/>
-      <c r="AK32" s="44"/>
-      <c r="AL32" s="44"/>
-      <c r="AM32" s="44"/>
-      <c r="AN32" s="44"/>
-      <c r="AO32" s="44"/>
-      <c r="AP32" s="44"/>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="44"/>
-      <c r="AS32" s="44"/>
-      <c r="AT32" s="44"/>
-      <c r="AU32" s="44"/>
-      <c r="AV32" s="44"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="57"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="57"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="57"/>
+      <c r="AJ32" s="57"/>
+      <c r="AK32" s="57"/>
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="57"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="57"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="57"/>
     </row>
     <row r="33" spans="2:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="14"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="46"/>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="46"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="46"/>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="46"/>
-      <c r="AL33" s="46"/>
-      <c r="AM33" s="46"/>
-      <c r="AN33" s="46"/>
-      <c r="AO33" s="46"/>
-      <c r="AP33" s="46"/>
-      <c r="AQ33" s="46"/>
-      <c r="AR33" s="46"/>
-      <c r="AS33" s="46"/>
-      <c r="AT33" s="46"/>
-      <c r="AU33" s="46"/>
-      <c r="AV33" s="46"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="59"/>
+      <c r="AN33" s="59"/>
+      <c r="AO33" s="59"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="59"/>
+      <c r="AS33" s="59"/>
+      <c r="AT33" s="59"/>
+      <c r="AU33" s="59"/>
+      <c r="AV33" s="59"/>
     </row>
     <row r="34" spans="2:48" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="43" t="s">
-        <v>25</v>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="56" t="s">
+        <v>24</v>
       </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="51"/>
-      <c r="AF35" s="51"/>
-      <c r="AG35" s="51"/>
-      <c r="AH35" s="51"/>
-      <c r="AI35" s="51"/>
-      <c r="AJ35" s="51"/>
-      <c r="AK35" s="51"/>
-      <c r="AL35" s="51"/>
-      <c r="AM35" s="51"/>
-      <c r="AN35" s="51"/>
-      <c r="AO35" s="51"/>
-      <c r="AP35" s="51"/>
-      <c r="AQ35" s="51"/>
-      <c r="AR35" s="51"/>
-      <c r="AS35" s="51"/>
-      <c r="AT35" s="51"/>
-      <c r="AU35" s="51"/>
-      <c r="AV35" s="51"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="44"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="44"/>
+      <c r="AJ35" s="44"/>
+      <c r="AK35" s="44"/>
+      <c r="AL35" s="44"/>
+      <c r="AM35" s="44"/>
+      <c r="AN35" s="44"/>
+      <c r="AO35" s="44"/>
+      <c r="AP35" s="44"/>
+      <c r="AQ35" s="44"/>
+      <c r="AR35" s="44"/>
+      <c r="AS35" s="44"/>
+      <c r="AT35" s="44"/>
+      <c r="AU35" s="44"/>
+      <c r="AV35" s="44"/>
     </row>
     <row r="36" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="51"/>
-      <c r="AC36" s="51"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="51"/>
-      <c r="AF36" s="51"/>
-      <c r="AG36" s="51"/>
-      <c r="AH36" s="51"/>
-      <c r="AI36" s="51"/>
-      <c r="AJ36" s="51"/>
-      <c r="AK36" s="51"/>
-      <c r="AL36" s="51"/>
-      <c r="AM36" s="51"/>
-      <c r="AN36" s="51"/>
-      <c r="AO36" s="51"/>
-      <c r="AP36" s="51"/>
-      <c r="AQ36" s="51"/>
-      <c r="AR36" s="51"/>
-      <c r="AS36" s="51"/>
-      <c r="AT36" s="51"/>
-      <c r="AU36" s="51"/>
-      <c r="AV36" s="51"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="44"/>
+      <c r="AK36" s="44"/>
+      <c r="AL36" s="44"/>
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="44"/>
+      <c r="AO36" s="44"/>
+      <c r="AP36" s="44"/>
+      <c r="AQ36" s="44"/>
+      <c r="AR36" s="44"/>
+      <c r="AS36" s="44"/>
+      <c r="AT36" s="44"/>
+      <c r="AU36" s="44"/>
+      <c r="AV36" s="44"/>
     </row>
     <row r="37" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="51"/>
-      <c r="AE37" s="51"/>
-      <c r="AF37" s="51"/>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
-      <c r="AK37" s="51"/>
-      <c r="AL37" s="51"/>
-      <c r="AM37" s="51"/>
-      <c r="AN37" s="51"/>
-      <c r="AO37" s="51"/>
-      <c r="AP37" s="51"/>
-      <c r="AQ37" s="51"/>
-      <c r="AR37" s="51"/>
-      <c r="AS37" s="51"/>
-      <c r="AT37" s="51"/>
-      <c r="AU37" s="51"/>
-      <c r="AV37" s="51"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="44"/>
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
+      <c r="AM37" s="44"/>
+      <c r="AN37" s="44"/>
+      <c r="AO37" s="44"/>
+      <c r="AP37" s="44"/>
+      <c r="AQ37" s="44"/>
+      <c r="AR37" s="44"/>
+      <c r="AS37" s="44"/>
+      <c r="AT37" s="44"/>
+      <c r="AU37" s="44"/>
+      <c r="AV37" s="44"/>
     </row>
     <row r="38" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
-      <c r="AA38" s="51"/>
-      <c r="AB38" s="51"/>
-      <c r="AC38" s="51"/>
-      <c r="AD38" s="51"/>
-      <c r="AE38" s="51"/>
-      <c r="AF38" s="51"/>
-      <c r="AG38" s="51"/>
-      <c r="AH38" s="51"/>
-      <c r="AI38" s="51"/>
-      <c r="AJ38" s="51"/>
-      <c r="AK38" s="51"/>
-      <c r="AL38" s="51"/>
-      <c r="AM38" s="51"/>
-      <c r="AN38" s="51"/>
-      <c r="AO38" s="51"/>
-      <c r="AP38" s="51"/>
-      <c r="AQ38" s="51"/>
-      <c r="AR38" s="51"/>
-      <c r="AS38" s="51"/>
-      <c r="AT38" s="51"/>
-      <c r="AU38" s="51"/>
-      <c r="AV38" s="51"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="44"/>
+      <c r="AJ38" s="44"/>
+      <c r="AK38" s="44"/>
+      <c r="AL38" s="44"/>
+      <c r="AM38" s="44"/>
+      <c r="AN38" s="44"/>
+      <c r="AO38" s="44"/>
+      <c r="AP38" s="44"/>
+      <c r="AQ38" s="44"/>
+      <c r="AR38" s="44"/>
+      <c r="AS38" s="44"/>
+      <c r="AT38" s="44"/>
+      <c r="AU38" s="44"/>
+      <c r="AV38" s="44"/>
     </row>
     <row r="39" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="51"/>
-      <c r="AC39" s="51"/>
-      <c r="AD39" s="51"/>
-      <c r="AE39" s="51"/>
-      <c r="AF39" s="51"/>
-      <c r="AG39" s="51"/>
-      <c r="AH39" s="51"/>
-      <c r="AI39" s="51"/>
-      <c r="AJ39" s="51"/>
-      <c r="AK39" s="51"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="51"/>
-      <c r="AN39" s="51"/>
-      <c r="AO39" s="51"/>
-      <c r="AP39" s="51"/>
-      <c r="AQ39" s="51"/>
-      <c r="AR39" s="51"/>
-      <c r="AS39" s="51"/>
-      <c r="AT39" s="51"/>
-      <c r="AU39" s="51"/>
-      <c r="AV39" s="51"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="44"/>
+      <c r="AI39" s="44"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
+      <c r="AP39" s="44"/>
+      <c r="AQ39" s="44"/>
+      <c r="AR39" s="44"/>
+      <c r="AS39" s="44"/>
+      <c r="AT39" s="44"/>
+      <c r="AU39" s="44"/>
+      <c r="AV39" s="44"/>
     </row>
     <row r="40" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="51"/>
-      <c r="AC40" s="51"/>
-      <c r="AD40" s="51"/>
-      <c r="AE40" s="51"/>
-      <c r="AF40" s="51"/>
-      <c r="AG40" s="51"/>
-      <c r="AH40" s="51"/>
-      <c r="AI40" s="51"/>
-      <c r="AJ40" s="51"/>
-      <c r="AK40" s="51"/>
-      <c r="AL40" s="51"/>
-      <c r="AM40" s="51"/>
-      <c r="AN40" s="51"/>
-      <c r="AO40" s="51"/>
-      <c r="AP40" s="51"/>
-      <c r="AQ40" s="51"/>
-      <c r="AR40" s="51"/>
-      <c r="AS40" s="51"/>
-      <c r="AT40" s="51"/>
-      <c r="AU40" s="51"/>
-      <c r="AV40" s="51"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="44"/>
+      <c r="AA40" s="44"/>
+      <c r="AB40" s="44"/>
+      <c r="AC40" s="44"/>
+      <c r="AD40" s="44"/>
+      <c r="AE40" s="44"/>
+      <c r="AF40" s="44"/>
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="44"/>
+      <c r="AI40" s="44"/>
+      <c r="AJ40" s="44"/>
+      <c r="AK40" s="44"/>
+      <c r="AL40" s="44"/>
+      <c r="AM40" s="44"/>
+      <c r="AN40" s="44"/>
+      <c r="AO40" s="44"/>
+      <c r="AP40" s="44"/>
+      <c r="AQ40" s="44"/>
+      <c r="AR40" s="44"/>
+      <c r="AS40" s="44"/>
+      <c r="AT40" s="44"/>
+      <c r="AU40" s="44"/>
+      <c r="AV40" s="44"/>
     </row>
     <row r="41" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="51"/>
-      <c r="AC41" s="51"/>
-      <c r="AD41" s="51"/>
-      <c r="AE41" s="51"/>
-      <c r="AF41" s="51"/>
-      <c r="AG41" s="51"/>
-      <c r="AH41" s="51"/>
-      <c r="AI41" s="51"/>
-      <c r="AJ41" s="51"/>
-      <c r="AK41" s="51"/>
-      <c r="AL41" s="51"/>
-      <c r="AM41" s="51"/>
-      <c r="AN41" s="51"/>
-      <c r="AO41" s="51"/>
-      <c r="AP41" s="51"/>
-      <c r="AQ41" s="51"/>
-      <c r="AR41" s="51"/>
-      <c r="AS41" s="51"/>
-      <c r="AT41" s="51"/>
-      <c r="AU41" s="51"/>
-      <c r="AV41" s="51"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="44"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="44"/>
+      <c r="AF41" s="44"/>
+      <c r="AG41" s="44"/>
+      <c r="AH41" s="44"/>
+      <c r="AI41" s="44"/>
+      <c r="AJ41" s="44"/>
+      <c r="AK41" s="44"/>
+      <c r="AL41" s="44"/>
+      <c r="AM41" s="44"/>
+      <c r="AN41" s="44"/>
+      <c r="AO41" s="44"/>
+      <c r="AP41" s="44"/>
+      <c r="AQ41" s="44"/>
+      <c r="AR41" s="44"/>
+      <c r="AS41" s="44"/>
+      <c r="AT41" s="44"/>
+      <c r="AU41" s="44"/>
+      <c r="AV41" s="44"/>
     </row>
     <row r="42" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="51"/>
-      <c r="U42" s="51"/>
-      <c r="V42" s="51"/>
-      <c r="W42" s="51"/>
-      <c r="X42" s="51"/>
-      <c r="Y42" s="51"/>
-      <c r="Z42" s="51"/>
-      <c r="AA42" s="51"/>
-      <c r="AB42" s="51"/>
-      <c r="AC42" s="51"/>
-      <c r="AD42" s="51"/>
-      <c r="AE42" s="51"/>
-      <c r="AF42" s="51"/>
-      <c r="AG42" s="51"/>
-      <c r="AH42" s="51"/>
-      <c r="AI42" s="51"/>
-      <c r="AJ42" s="51"/>
-      <c r="AK42" s="51"/>
-      <c r="AL42" s="51"/>
-      <c r="AM42" s="51"/>
-      <c r="AN42" s="51"/>
-      <c r="AO42" s="51"/>
-      <c r="AP42" s="51"/>
-      <c r="AQ42" s="51"/>
-      <c r="AR42" s="51"/>
-      <c r="AS42" s="51"/>
-      <c r="AT42" s="51"/>
-      <c r="AU42" s="51"/>
-      <c r="AV42" s="51"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="44"/>
+      <c r="AA42" s="44"/>
+      <c r="AB42" s="44"/>
+      <c r="AC42" s="44"/>
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="44"/>
+      <c r="AF42" s="44"/>
+      <c r="AG42" s="44"/>
+      <c r="AH42" s="44"/>
+      <c r="AI42" s="44"/>
+      <c r="AJ42" s="44"/>
+      <c r="AK42" s="44"/>
+      <c r="AL42" s="44"/>
+      <c r="AM42" s="44"/>
+      <c r="AN42" s="44"/>
+      <c r="AO42" s="44"/>
+      <c r="AP42" s="44"/>
+      <c r="AQ42" s="44"/>
+      <c r="AR42" s="44"/>
+      <c r="AS42" s="44"/>
+      <c r="AT42" s="44"/>
+      <c r="AU42" s="44"/>
+      <c r="AV42" s="44"/>
     </row>
     <row r="43" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="51"/>
-      <c r="T43" s="51"/>
-      <c r="U43" s="51"/>
-      <c r="V43" s="51"/>
-      <c r="W43" s="51"/>
-      <c r="X43" s="51"/>
-      <c r="Y43" s="51"/>
-      <c r="Z43" s="51"/>
-      <c r="AA43" s="51"/>
-      <c r="AB43" s="51"/>
-      <c r="AC43" s="51"/>
-      <c r="AD43" s="51"/>
-      <c r="AE43" s="51"/>
-      <c r="AF43" s="51"/>
-      <c r="AG43" s="51"/>
-      <c r="AH43" s="51"/>
-      <c r="AI43" s="51"/>
-      <c r="AJ43" s="51"/>
-      <c r="AK43" s="51"/>
-      <c r="AL43" s="51"/>
-      <c r="AM43" s="51"/>
-      <c r="AN43" s="51"/>
-      <c r="AO43" s="51"/>
-      <c r="AP43" s="51"/>
-      <c r="AQ43" s="51"/>
-      <c r="AR43" s="51"/>
-      <c r="AS43" s="51"/>
-      <c r="AT43" s="51"/>
-      <c r="AU43" s="51"/>
-      <c r="AV43" s="51"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="44"/>
+      <c r="AA43" s="44"/>
+      <c r="AB43" s="44"/>
+      <c r="AC43" s="44"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="44"/>
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="44"/>
+      <c r="AI43" s="44"/>
+      <c r="AJ43" s="44"/>
+      <c r="AK43" s="44"/>
+      <c r="AL43" s="44"/>
+      <c r="AM43" s="44"/>
+      <c r="AN43" s="44"/>
+      <c r="AO43" s="44"/>
+      <c r="AP43" s="44"/>
+      <c r="AQ43" s="44"/>
+      <c r="AR43" s="44"/>
+      <c r="AS43" s="44"/>
+      <c r="AT43" s="44"/>
+      <c r="AU43" s="44"/>
+      <c r="AV43" s="44"/>
     </row>
     <row r="44" spans="2:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="14"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="54"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="54"/>
-      <c r="X44" s="54"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="54"/>
-      <c r="AA44" s="54"/>
-      <c r="AB44" s="54"/>
-      <c r="AC44" s="54"/>
-      <c r="AD44" s="54"/>
-      <c r="AE44" s="54"/>
-      <c r="AF44" s="54"/>
-      <c r="AG44" s="54"/>
-      <c r="AH44" s="54"/>
-      <c r="AI44" s="54"/>
-      <c r="AJ44" s="54"/>
-      <c r="AK44" s="54"/>
-      <c r="AL44" s="54"/>
-      <c r="AM44" s="54"/>
-      <c r="AN44" s="54"/>
-      <c r="AO44" s="54"/>
-      <c r="AP44" s="54"/>
-      <c r="AQ44" s="54"/>
-      <c r="AR44" s="54"/>
-      <c r="AS44" s="54"/>
-      <c r="AT44" s="54"/>
-      <c r="AU44" s="54"/>
-      <c r="AV44" s="54"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="46"/>
+      <c r="Y44" s="46"/>
+      <c r="Z44" s="46"/>
+      <c r="AA44" s="46"/>
+      <c r="AB44" s="46"/>
+      <c r="AC44" s="46"/>
+      <c r="AD44" s="46"/>
+      <c r="AE44" s="46"/>
+      <c r="AF44" s="46"/>
+      <c r="AG44" s="46"/>
+      <c r="AH44" s="46"/>
+      <c r="AI44" s="46"/>
+      <c r="AJ44" s="46"/>
+      <c r="AK44" s="46"/>
+      <c r="AL44" s="46"/>
+      <c r="AM44" s="46"/>
+      <c r="AN44" s="46"/>
+      <c r="AO44" s="46"/>
+      <c r="AP44" s="46"/>
+      <c r="AQ44" s="46"/>
+      <c r="AR44" s="46"/>
+      <c r="AS44" s="46"/>
+      <c r="AT44" s="46"/>
+      <c r="AU44" s="46"/>
+      <c r="AV44" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C24:F33"/>
+    <mergeCell ref="G24:AV33"/>
+    <mergeCell ref="C35:F44"/>
+    <mergeCell ref="G35:AV44"/>
+    <mergeCell ref="C12:F16"/>
+    <mergeCell ref="C18:F22"/>
+    <mergeCell ref="G18:AB22"/>
+    <mergeCell ref="G12:AB16"/>
     <mergeCell ref="C9:F10"/>
     <mergeCell ref="G9:N10"/>
     <mergeCell ref="Q9:T10"/>
@@ -32130,14 +32138,6 @@
     <mergeCell ref="Q6:T7"/>
     <mergeCell ref="U6:AB7"/>
     <mergeCell ref="AG6:AU7"/>
-    <mergeCell ref="C24:F33"/>
-    <mergeCell ref="G24:AV33"/>
-    <mergeCell ref="C35:F44"/>
-    <mergeCell ref="G35:AV44"/>
-    <mergeCell ref="C12:F16"/>
-    <mergeCell ref="C18:F22"/>
-    <mergeCell ref="G18:AB22"/>
-    <mergeCell ref="G12:AB16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개인 작업 폴더/정하경/컨펌 폴더/마기를 머금은 논산/[설정]_논산_꽃뱀_컨셉기획서_v0.01.xlsx
+++ b/개인 작업 폴더/정하경/컨펌 폴더/마기를 머금은 논산/[설정]_논산_꽃뱀_컨셉기획서_v0.01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Yaho\개인 작업 폴더\정하경\컨펌 폴더\마기를 머금은 논산\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Program\Documents\GitHub\Yaho\개인 작업 폴더\정하경\컨펌 폴더\마기를 머금은 논산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03143F19-1D36-40B2-906F-30C7520FCF24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FA4D00-3309-49DF-BB7A-CB30D277894B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2F3D59DB-E2B7-4A2E-9E4B-A7D439020835}"/>
   </bookViews>
@@ -122,13 +122,15 @@
   </si>
   <si>
     <t>논산에는 원래 뱀이 많다. 일반몬스터에 뱀이 들어가도 전혀 이상하지 않을 것 같다.
-꽃뱀, 일반 뱀, 초록 뱀, 흰색 뱀.. 등 색깔만 변경하면 얼마든지 다른 뱀 종류로 변경이 가능하다.</t>
+꽃뱀, 일반 뱀, 초록 뱀, 흰색 뱀.. 등 색깔만 변경하면 얼마든지 다른 뱀 종류로 변경이 가능하다.
+몬스터의 강함을 생각한다면 (1~5)중 1의 정도라고 생각한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지구로 넘어온 후 논산의 농약을 먹고 정처 없이 논산을 떠도는 뱀 몬스터이다.
 머리에 꽃을 달고 하염 없이 스테이지를 맴돈다.
-"뱀…배앰….….뱀…."</t>
+겉 보기엔 약해 보이지만, 방심하다간 치명적인 독에 물릴 지도 모른다.
+"쉭…쉬익..쉭…."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,6 +667,30 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -676,10 +702,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -703,30 +729,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -748,16 +750,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>104843</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47733</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>161993</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219183</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -780,7 +782,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8763000" y="2705100"/>
+          <a:off x="7448550" y="1733550"/>
           <a:ext cx="485843" cy="771633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -792,16 +794,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>152456</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28633</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>9581</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -824,8 +826,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9353550" y="2581275"/>
+          <a:off x="8067675" y="1819275"/>
           <a:ext cx="400106" cy="419158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>86230</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>209780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC64699-A9F6-460F-88D2-F8008F2C2D5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="2790825"/>
+          <a:ext cx="3620005" cy="1648055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30178,8 +30224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68C453B-BEE0-4E2B-A5A3-7E1F6AF40844}">
   <dimension ref="B2:AW44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AY19" sqref="AY19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="BF7" sqref="BF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30195,44 +30241,44 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
       <c r="AQ2" s="6"/>
       <c r="AR2" s="6"/>
       <c r="AS2" s="6"/>
@@ -30246,42 +30292,42 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="48"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
       <c r="AQ3" s="6"/>
       <c r="AR3" s="6"/>
       <c r="AS3" s="6"/>
@@ -30295,42 +30341,42 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
       <c r="AS4" s="4"/>
@@ -30341,109 +30387,109 @@
     <row r="5" spans="2:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="43" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
       <c r="O6" s="13"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="39" t="s">
+      <c r="Q6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="43" t="s">
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
       <c r="AD6" s="16"/>
       <c r="AE6" s="17"/>
       <c r="AF6" s="9"/>
-      <c r="AG6" s="50" t="s">
+      <c r="AG6" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="AH6" s="50"/>
-      <c r="AI6" s="50"/>
-      <c r="AJ6" s="50"/>
-      <c r="AK6" s="50"/>
-      <c r="AL6" s="50"/>
-      <c r="AM6" s="50"/>
-      <c r="AN6" s="50"/>
-      <c r="AO6" s="50"/>
-      <c r="AP6" s="50"/>
-      <c r="AQ6" s="50"/>
-      <c r="AR6" s="50"/>
-      <c r="AS6" s="50"/>
-      <c r="AT6" s="50"/>
-      <c r="AU6" s="50"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="58"/>
+      <c r="AK6" s="58"/>
+      <c r="AL6" s="58"/>
+      <c r="AM6" s="58"/>
+      <c r="AN6" s="58"/>
+      <c r="AO6" s="58"/>
+      <c r="AP6" s="58"/>
+      <c r="AQ6" s="58"/>
+      <c r="AR6" s="58"/>
+      <c r="AS6" s="58"/>
+      <c r="AT6" s="58"/>
+      <c r="AU6" s="58"/>
       <c r="AV6" s="10"/>
       <c r="AW6" s="8"/>
     </row>
     <row r="7" spans="2:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
       <c r="O7" s="13"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
       <c r="AD7" s="23"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="11"/>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="51"/>
-      <c r="AJ7" s="51"/>
-      <c r="AK7" s="51"/>
-      <c r="AL7" s="51"/>
-      <c r="AM7" s="51"/>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="51"/>
-      <c r="AP7" s="51"/>
-      <c r="AQ7" s="51"/>
-      <c r="AR7" s="51"/>
-      <c r="AS7" s="51"/>
-      <c r="AT7" s="51"/>
-      <c r="AU7" s="51"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="59"/>
+      <c r="AJ7" s="59"/>
+      <c r="AK7" s="59"/>
+      <c r="AL7" s="59"/>
+      <c r="AM7" s="59"/>
+      <c r="AN7" s="59"/>
+      <c r="AO7" s="59"/>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="59"/>
+      <c r="AR7" s="59"/>
+      <c r="AS7" s="59"/>
+      <c r="AT7" s="59"/>
+      <c r="AU7" s="59"/>
       <c r="AV7" s="12"/>
       <c r="AW7" s="8"/>
     </row>
@@ -30496,40 +30542,40 @@
     </row>
     <row r="9" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="43" t="s">
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
       <c r="O9" s="13"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="39" t="s">
+      <c r="Q9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="43" t="s">
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="13"/>
@@ -30552,32 +30598,32 @@
     </row>
     <row r="10" spans="2:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
       <c r="O10" s="13"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="13"/>
@@ -30621,36 +30667,36 @@
     </row>
     <row r="12" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="57" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="20"/>
       <c r="AF12" s="13"/>
@@ -30673,32 +30719,32 @@
     </row>
     <row r="13" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="20"/>
       <c r="AF13" s="13"/>
@@ -30721,32 +30767,32 @@
     </row>
     <row r="14" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="20"/>
       <c r="AF14" s="13"/>
@@ -30769,32 +30815,32 @@
     </row>
     <row r="15" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="20"/>
       <c r="AF15" s="13"/>
@@ -30817,32 +30863,32 @@
     </row>
     <row r="16" spans="2:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="14"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="20"/>
       <c r="AF16" s="13"/>
@@ -30886,36 +30932,36 @@
     </row>
     <row r="18" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="57" t="s">
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="20"/>
       <c r="AF18" s="13"/>
@@ -30938,32 +30984,32 @@
     </row>
     <row r="19" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="20"/>
       <c r="AF19" s="13"/>
@@ -30986,32 +31032,32 @@
     </row>
     <row r="20" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
       <c r="AD20" s="22"/>
       <c r="AE20" s="20"/>
       <c r="AF20" s="13"/>
@@ -31034,32 +31080,32 @@
     </row>
     <row r="21" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="51"/>
       <c r="AD21" s="22"/>
       <c r="AE21" s="20"/>
       <c r="AF21" s="13"/>
@@ -31082,32 +31128,32 @@
     </row>
     <row r="22" spans="2:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="14"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="46"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
       <c r="AD22" s="21"/>
       <c r="AE22" s="18"/>
       <c r="AF22" s="11"/>
@@ -31131,1003 +31177,995 @@
     <row r="23" spans="2:48" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="56" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="57"/>
-      <c r="AC24" s="57"/>
-      <c r="AD24" s="57"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="57"/>
-      <c r="AG24" s="57"/>
-      <c r="AH24" s="57"/>
-      <c r="AI24" s="57"/>
-      <c r="AJ24" s="57"/>
-      <c r="AK24" s="57"/>
-      <c r="AL24" s="57"/>
-      <c r="AM24" s="57"/>
-      <c r="AN24" s="57"/>
-      <c r="AO24" s="57"/>
-      <c r="AP24" s="57"/>
-      <c r="AQ24" s="57"/>
-      <c r="AR24" s="57"/>
-      <c r="AS24" s="57"/>
-      <c r="AT24" s="57"/>
-      <c r="AU24" s="57"/>
-      <c r="AV24" s="57"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="44"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="44"/>
+      <c r="AL24" s="44"/>
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="44"/>
+      <c r="AO24" s="44"/>
+      <c r="AP24" s="44"/>
+      <c r="AQ24" s="44"/>
+      <c r="AR24" s="44"/>
+      <c r="AS24" s="44"/>
+      <c r="AT24" s="44"/>
+      <c r="AU24" s="44"/>
+      <c r="AV24" s="44"/>
     </row>
     <row r="25" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="57"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="57"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="57"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="57"/>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="57"/>
-      <c r="AN25" s="57"/>
-      <c r="AO25" s="57"/>
-      <c r="AP25" s="57"/>
-      <c r="AQ25" s="57"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="57"/>
-      <c r="AT25" s="57"/>
-      <c r="AU25" s="57"/>
-      <c r="AV25" s="57"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="44"/>
+      <c r="AQ25" s="44"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="44"/>
+      <c r="AU25" s="44"/>
+      <c r="AV25" s="44"/>
     </row>
     <row r="26" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="57"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="57"/>
-      <c r="AN26" s="57"/>
-      <c r="AO26" s="57"/>
-      <c r="AP26" s="57"/>
-      <c r="AQ26" s="57"/>
-      <c r="AR26" s="57"/>
-      <c r="AS26" s="57"/>
-      <c r="AT26" s="57"/>
-      <c r="AU26" s="57"/>
-      <c r="AV26" s="57"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="44"/>
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="44"/>
+      <c r="AQ26" s="44"/>
+      <c r="AR26" s="44"/>
+      <c r="AS26" s="44"/>
+      <c r="AT26" s="44"/>
+      <c r="AU26" s="44"/>
+      <c r="AV26" s="44"/>
     </row>
     <row r="27" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="57"/>
-      <c r="AJ27" s="57"/>
-      <c r="AK27" s="57"/>
-      <c r="AL27" s="57"/>
-      <c r="AM27" s="57"/>
-      <c r="AN27" s="57"/>
-      <c r="AO27" s="57"/>
-      <c r="AP27" s="57"/>
-      <c r="AQ27" s="57"/>
-      <c r="AR27" s="57"/>
-      <c r="AS27" s="57"/>
-      <c r="AT27" s="57"/>
-      <c r="AU27" s="57"/>
-      <c r="AV27" s="57"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="44"/>
+      <c r="AT27" s="44"/>
+      <c r="AU27" s="44"/>
+      <c r="AV27" s="44"/>
     </row>
     <row r="28" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="57"/>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="57"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="57"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="57"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="44"/>
+      <c r="AR28" s="44"/>
+      <c r="AS28" s="44"/>
+      <c r="AT28" s="44"/>
+      <c r="AU28" s="44"/>
+      <c r="AV28" s="44"/>
     </row>
     <row r="29" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="57"/>
-      <c r="AC29" s="57"/>
-      <c r="AD29" s="57"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="57"/>
-      <c r="AJ29" s="57"/>
-      <c r="AK29" s="57"/>
-      <c r="AL29" s="57"/>
-      <c r="AM29" s="57"/>
-      <c r="AN29" s="57"/>
-      <c r="AO29" s="57"/>
-      <c r="AP29" s="57"/>
-      <c r="AQ29" s="57"/>
-      <c r="AR29" s="57"/>
-      <c r="AS29" s="57"/>
-      <c r="AT29" s="57"/>
-      <c r="AU29" s="57"/>
-      <c r="AV29" s="57"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="44"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="44"/>
+      <c r="AU29" s="44"/>
+      <c r="AV29" s="44"/>
     </row>
     <row r="30" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="57"/>
-      <c r="AC30" s="57"/>
-      <c r="AD30" s="57"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="57"/>
-      <c r="AH30" s="57"/>
-      <c r="AI30" s="57"/>
-      <c r="AJ30" s="57"/>
-      <c r="AK30" s="57"/>
-      <c r="AL30" s="57"/>
-      <c r="AM30" s="57"/>
-      <c r="AN30" s="57"/>
-      <c r="AO30" s="57"/>
-      <c r="AP30" s="57"/>
-      <c r="AQ30" s="57"/>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
-      <c r="AT30" s="57"/>
-      <c r="AU30" s="57"/>
-      <c r="AV30" s="57"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="44"/>
+      <c r="AJ30" s="44"/>
+      <c r="AK30" s="44"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="44"/>
+      <c r="AP30" s="44"/>
+      <c r="AQ30" s="44"/>
+      <c r="AR30" s="44"/>
+      <c r="AS30" s="44"/>
+      <c r="AT30" s="44"/>
+      <c r="AU30" s="44"/>
+      <c r="AV30" s="44"/>
     </row>
     <row r="31" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="57"/>
-      <c r="AC31" s="57"/>
-      <c r="AD31" s="57"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="57"/>
-      <c r="AG31" s="57"/>
-      <c r="AH31" s="57"/>
-      <c r="AI31" s="57"/>
-      <c r="AJ31" s="57"/>
-      <c r="AK31" s="57"/>
-      <c r="AL31" s="57"/>
-      <c r="AM31" s="57"/>
-      <c r="AN31" s="57"/>
-      <c r="AO31" s="57"/>
-      <c r="AP31" s="57"/>
-      <c r="AQ31" s="57"/>
-      <c r="AR31" s="57"/>
-      <c r="AS31" s="57"/>
-      <c r="AT31" s="57"/>
-      <c r="AU31" s="57"/>
-      <c r="AV31" s="57"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="44"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="44"/>
+      <c r="AI31" s="44"/>
+      <c r="AJ31" s="44"/>
+      <c r="AK31" s="44"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="44"/>
+      <c r="AO31" s="44"/>
+      <c r="AP31" s="44"/>
+      <c r="AQ31" s="44"/>
+      <c r="AR31" s="44"/>
+      <c r="AS31" s="44"/>
+      <c r="AT31" s="44"/>
+      <c r="AU31" s="44"/>
+      <c r="AV31" s="44"/>
     </row>
     <row r="32" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="57"/>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="57"/>
-      <c r="AB32" s="57"/>
-      <c r="AC32" s="57"/>
-      <c r="AD32" s="57"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="57"/>
-      <c r="AG32" s="57"/>
-      <c r="AH32" s="57"/>
-      <c r="AI32" s="57"/>
-      <c r="AJ32" s="57"/>
-      <c r="AK32" s="57"/>
-      <c r="AL32" s="57"/>
-      <c r="AM32" s="57"/>
-      <c r="AN32" s="57"/>
-      <c r="AO32" s="57"/>
-      <c r="AP32" s="57"/>
-      <c r="AQ32" s="57"/>
-      <c r="AR32" s="57"/>
-      <c r="AS32" s="57"/>
-      <c r="AT32" s="57"/>
-      <c r="AU32" s="57"/>
-      <c r="AV32" s="57"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="44"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="44"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="44"/>
+      <c r="AS32" s="44"/>
+      <c r="AT32" s="44"/>
+      <c r="AU32" s="44"/>
+      <c r="AV32" s="44"/>
     </row>
     <row r="33" spans="2:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="14"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="59"/>
-      <c r="AH33" s="59"/>
-      <c r="AI33" s="59"/>
-      <c r="AJ33" s="59"/>
-      <c r="AK33" s="59"/>
-      <c r="AL33" s="59"/>
-      <c r="AM33" s="59"/>
-      <c r="AN33" s="59"/>
-      <c r="AO33" s="59"/>
-      <c r="AP33" s="59"/>
-      <c r="AQ33" s="59"/>
-      <c r="AR33" s="59"/>
-      <c r="AS33" s="59"/>
-      <c r="AT33" s="59"/>
-      <c r="AU33" s="59"/>
-      <c r="AV33" s="59"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="46"/>
+      <c r="AF33" s="46"/>
+      <c r="AG33" s="46"/>
+      <c r="AH33" s="46"/>
+      <c r="AI33" s="46"/>
+      <c r="AJ33" s="46"/>
+      <c r="AK33" s="46"/>
+      <c r="AL33" s="46"/>
+      <c r="AM33" s="46"/>
+      <c r="AN33" s="46"/>
+      <c r="AO33" s="46"/>
+      <c r="AP33" s="46"/>
+      <c r="AQ33" s="46"/>
+      <c r="AR33" s="46"/>
+      <c r="AS33" s="46"/>
+      <c r="AT33" s="46"/>
+      <c r="AU33" s="46"/>
+      <c r="AV33" s="46"/>
     </row>
     <row r="34" spans="2:48" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="56" t="s">
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="44"/>
-      <c r="AB35" s="44"/>
-      <c r="AC35" s="44"/>
-      <c r="AD35" s="44"/>
-      <c r="AE35" s="44"/>
-      <c r="AF35" s="44"/>
-      <c r="AG35" s="44"/>
-      <c r="AH35" s="44"/>
-      <c r="AI35" s="44"/>
-      <c r="AJ35" s="44"/>
-      <c r="AK35" s="44"/>
-      <c r="AL35" s="44"/>
-      <c r="AM35" s="44"/>
-      <c r="AN35" s="44"/>
-      <c r="AO35" s="44"/>
-      <c r="AP35" s="44"/>
-      <c r="AQ35" s="44"/>
-      <c r="AR35" s="44"/>
-      <c r="AS35" s="44"/>
-      <c r="AT35" s="44"/>
-      <c r="AU35" s="44"/>
-      <c r="AV35" s="44"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="51"/>
+      <c r="AK35" s="51"/>
+      <c r="AL35" s="51"/>
+      <c r="AM35" s="51"/>
+      <c r="AN35" s="51"/>
+      <c r="AO35" s="51"/>
+      <c r="AP35" s="51"/>
+      <c r="AQ35" s="51"/>
+      <c r="AR35" s="51"/>
+      <c r="AS35" s="51"/>
+      <c r="AT35" s="51"/>
+      <c r="AU35" s="51"/>
+      <c r="AV35" s="51"/>
     </row>
     <row r="36" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="44"/>
-      <c r="Z36" s="44"/>
-      <c r="AA36" s="44"/>
-      <c r="AB36" s="44"/>
-      <c r="AC36" s="44"/>
-      <c r="AD36" s="44"/>
-      <c r="AE36" s="44"/>
-      <c r="AF36" s="44"/>
-      <c r="AG36" s="44"/>
-      <c r="AH36" s="44"/>
-      <c r="AI36" s="44"/>
-      <c r="AJ36" s="44"/>
-      <c r="AK36" s="44"/>
-      <c r="AL36" s="44"/>
-      <c r="AM36" s="44"/>
-      <c r="AN36" s="44"/>
-      <c r="AO36" s="44"/>
-      <c r="AP36" s="44"/>
-      <c r="AQ36" s="44"/>
-      <c r="AR36" s="44"/>
-      <c r="AS36" s="44"/>
-      <c r="AT36" s="44"/>
-      <c r="AU36" s="44"/>
-      <c r="AV36" s="44"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="51"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="51"/>
+      <c r="AF36" s="51"/>
+      <c r="AG36" s="51"/>
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51"/>
+      <c r="AJ36" s="51"/>
+      <c r="AK36" s="51"/>
+      <c r="AL36" s="51"/>
+      <c r="AM36" s="51"/>
+      <c r="AN36" s="51"/>
+      <c r="AO36" s="51"/>
+      <c r="AP36" s="51"/>
+      <c r="AQ36" s="51"/>
+      <c r="AR36" s="51"/>
+      <c r="AS36" s="51"/>
+      <c r="AT36" s="51"/>
+      <c r="AU36" s="51"/>
+      <c r="AV36" s="51"/>
     </row>
     <row r="37" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="44"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="44"/>
-      <c r="Z37" s="44"/>
-      <c r="AA37" s="44"/>
-      <c r="AB37" s="44"/>
-      <c r="AC37" s="44"/>
-      <c r="AD37" s="44"/>
-      <c r="AE37" s="44"/>
-      <c r="AF37" s="44"/>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
-      <c r="AM37" s="44"/>
-      <c r="AN37" s="44"/>
-      <c r="AO37" s="44"/>
-      <c r="AP37" s="44"/>
-      <c r="AQ37" s="44"/>
-      <c r="AR37" s="44"/>
-      <c r="AS37" s="44"/>
-      <c r="AT37" s="44"/>
-      <c r="AU37" s="44"/>
-      <c r="AV37" s="44"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="51"/>
+      <c r="AM37" s="51"/>
+      <c r="AN37" s="51"/>
+      <c r="AO37" s="51"/>
+      <c r="AP37" s="51"/>
+      <c r="AQ37" s="51"/>
+      <c r="AR37" s="51"/>
+      <c r="AS37" s="51"/>
+      <c r="AT37" s="51"/>
+      <c r="AU37" s="51"/>
+      <c r="AV37" s="51"/>
     </row>
     <row r="38" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="44"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="44"/>
-      <c r="AE38" s="44"/>
-      <c r="AF38" s="44"/>
-      <c r="AG38" s="44"/>
-      <c r="AH38" s="44"/>
-      <c r="AI38" s="44"/>
-      <c r="AJ38" s="44"/>
-      <c r="AK38" s="44"/>
-      <c r="AL38" s="44"/>
-      <c r="AM38" s="44"/>
-      <c r="AN38" s="44"/>
-      <c r="AO38" s="44"/>
-      <c r="AP38" s="44"/>
-      <c r="AQ38" s="44"/>
-      <c r="AR38" s="44"/>
-      <c r="AS38" s="44"/>
-      <c r="AT38" s="44"/>
-      <c r="AU38" s="44"/>
-      <c r="AV38" s="44"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="51"/>
+      <c r="AA38" s="51"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="51"/>
+      <c r="AD38" s="51"/>
+      <c r="AE38" s="51"/>
+      <c r="AF38" s="51"/>
+      <c r="AG38" s="51"/>
+      <c r="AH38" s="51"/>
+      <c r="AI38" s="51"/>
+      <c r="AJ38" s="51"/>
+      <c r="AK38" s="51"/>
+      <c r="AL38" s="51"/>
+      <c r="AM38" s="51"/>
+      <c r="AN38" s="51"/>
+      <c r="AO38" s="51"/>
+      <c r="AP38" s="51"/>
+      <c r="AQ38" s="51"/>
+      <c r="AR38" s="51"/>
+      <c r="AS38" s="51"/>
+      <c r="AT38" s="51"/>
+      <c r="AU38" s="51"/>
+      <c r="AV38" s="51"/>
     </row>
     <row r="39" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AE39" s="44"/>
-      <c r="AF39" s="44"/>
-      <c r="AG39" s="44"/>
-      <c r="AH39" s="44"/>
-      <c r="AI39" s="44"/>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
-      <c r="AP39" s="44"/>
-      <c r="AQ39" s="44"/>
-      <c r="AR39" s="44"/>
-      <c r="AS39" s="44"/>
-      <c r="AT39" s="44"/>
-      <c r="AU39" s="44"/>
-      <c r="AV39" s="44"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="51"/>
+      <c r="AF39" s="51"/>
+      <c r="AG39" s="51"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="51"/>
+      <c r="AJ39" s="51"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="51"/>
+      <c r="AN39" s="51"/>
+      <c r="AO39" s="51"/>
+      <c r="AP39" s="51"/>
+      <c r="AQ39" s="51"/>
+      <c r="AR39" s="51"/>
+      <c r="AS39" s="51"/>
+      <c r="AT39" s="51"/>
+      <c r="AU39" s="51"/>
+      <c r="AV39" s="51"/>
     </row>
     <row r="40" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="44"/>
-      <c r="U40" s="44"/>
-      <c r="V40" s="44"/>
-      <c r="W40" s="44"/>
-      <c r="X40" s="44"/>
-      <c r="Y40" s="44"/>
-      <c r="Z40" s="44"/>
-      <c r="AA40" s="44"/>
-      <c r="AB40" s="44"/>
-      <c r="AC40" s="44"/>
-      <c r="AD40" s="44"/>
-      <c r="AE40" s="44"/>
-      <c r="AF40" s="44"/>
-      <c r="AG40" s="44"/>
-      <c r="AH40" s="44"/>
-      <c r="AI40" s="44"/>
-      <c r="AJ40" s="44"/>
-      <c r="AK40" s="44"/>
-      <c r="AL40" s="44"/>
-      <c r="AM40" s="44"/>
-      <c r="AN40" s="44"/>
-      <c r="AO40" s="44"/>
-      <c r="AP40" s="44"/>
-      <c r="AQ40" s="44"/>
-      <c r="AR40" s="44"/>
-      <c r="AS40" s="44"/>
-      <c r="AT40" s="44"/>
-      <c r="AU40" s="44"/>
-      <c r="AV40" s="44"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="51"/>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="51"/>
+      <c r="AG40" s="51"/>
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="51"/>
+      <c r="AJ40" s="51"/>
+      <c r="AK40" s="51"/>
+      <c r="AL40" s="51"/>
+      <c r="AM40" s="51"/>
+      <c r="AN40" s="51"/>
+      <c r="AO40" s="51"/>
+      <c r="AP40" s="51"/>
+      <c r="AQ40" s="51"/>
+      <c r="AR40" s="51"/>
+      <c r="AS40" s="51"/>
+      <c r="AT40" s="51"/>
+      <c r="AU40" s="51"/>
+      <c r="AV40" s="51"/>
     </row>
     <row r="41" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="44"/>
-      <c r="AA41" s="44"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="44"/>
-      <c r="AD41" s="44"/>
-      <c r="AE41" s="44"/>
-      <c r="AF41" s="44"/>
-      <c r="AG41" s="44"/>
-      <c r="AH41" s="44"/>
-      <c r="AI41" s="44"/>
-      <c r="AJ41" s="44"/>
-      <c r="AK41" s="44"/>
-      <c r="AL41" s="44"/>
-      <c r="AM41" s="44"/>
-      <c r="AN41" s="44"/>
-      <c r="AO41" s="44"/>
-      <c r="AP41" s="44"/>
-      <c r="AQ41" s="44"/>
-      <c r="AR41" s="44"/>
-      <c r="AS41" s="44"/>
-      <c r="AT41" s="44"/>
-      <c r="AU41" s="44"/>
-      <c r="AV41" s="44"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="51"/>
+      <c r="AA41" s="51"/>
+      <c r="AB41" s="51"/>
+      <c r="AC41" s="51"/>
+      <c r="AD41" s="51"/>
+      <c r="AE41" s="51"/>
+      <c r="AF41" s="51"/>
+      <c r="AG41" s="51"/>
+      <c r="AH41" s="51"/>
+      <c r="AI41" s="51"/>
+      <c r="AJ41" s="51"/>
+      <c r="AK41" s="51"/>
+      <c r="AL41" s="51"/>
+      <c r="AM41" s="51"/>
+      <c r="AN41" s="51"/>
+      <c r="AO41" s="51"/>
+      <c r="AP41" s="51"/>
+      <c r="AQ41" s="51"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="51"/>
+      <c r="AT41" s="51"/>
+      <c r="AU41" s="51"/>
+      <c r="AV41" s="51"/>
     </row>
     <row r="42" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="44"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="44"/>
-      <c r="Z42" s="44"/>
-      <c r="AA42" s="44"/>
-      <c r="AB42" s="44"/>
-      <c r="AC42" s="44"/>
-      <c r="AD42" s="44"/>
-      <c r="AE42" s="44"/>
-      <c r="AF42" s="44"/>
-      <c r="AG42" s="44"/>
-      <c r="AH42" s="44"/>
-      <c r="AI42" s="44"/>
-      <c r="AJ42" s="44"/>
-      <c r="AK42" s="44"/>
-      <c r="AL42" s="44"/>
-      <c r="AM42" s="44"/>
-      <c r="AN42" s="44"/>
-      <c r="AO42" s="44"/>
-      <c r="AP42" s="44"/>
-      <c r="AQ42" s="44"/>
-      <c r="AR42" s="44"/>
-      <c r="AS42" s="44"/>
-      <c r="AT42" s="44"/>
-      <c r="AU42" s="44"/>
-      <c r="AV42" s="44"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="51"/>
+      <c r="W42" s="51"/>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="51"/>
+      <c r="Z42" s="51"/>
+      <c r="AA42" s="51"/>
+      <c r="AB42" s="51"/>
+      <c r="AC42" s="51"/>
+      <c r="AD42" s="51"/>
+      <c r="AE42" s="51"/>
+      <c r="AF42" s="51"/>
+      <c r="AG42" s="51"/>
+      <c r="AH42" s="51"/>
+      <c r="AI42" s="51"/>
+      <c r="AJ42" s="51"/>
+      <c r="AK42" s="51"/>
+      <c r="AL42" s="51"/>
+      <c r="AM42" s="51"/>
+      <c r="AN42" s="51"/>
+      <c r="AO42" s="51"/>
+      <c r="AP42" s="51"/>
+      <c r="AQ42" s="51"/>
+      <c r="AR42" s="51"/>
+      <c r="AS42" s="51"/>
+      <c r="AT42" s="51"/>
+      <c r="AU42" s="51"/>
+      <c r="AV42" s="51"/>
     </row>
     <row r="43" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="44"/>
-      <c r="Z43" s="44"/>
-      <c r="AA43" s="44"/>
-      <c r="AB43" s="44"/>
-      <c r="AC43" s="44"/>
-      <c r="AD43" s="44"/>
-      <c r="AE43" s="44"/>
-      <c r="AF43" s="44"/>
-      <c r="AG43" s="44"/>
-      <c r="AH43" s="44"/>
-      <c r="AI43" s="44"/>
-      <c r="AJ43" s="44"/>
-      <c r="AK43" s="44"/>
-      <c r="AL43" s="44"/>
-      <c r="AM43" s="44"/>
-      <c r="AN43" s="44"/>
-      <c r="AO43" s="44"/>
-      <c r="AP43" s="44"/>
-      <c r="AQ43" s="44"/>
-      <c r="AR43" s="44"/>
-      <c r="AS43" s="44"/>
-      <c r="AT43" s="44"/>
-      <c r="AU43" s="44"/>
-      <c r="AV43" s="44"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="51"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="51"/>
+      <c r="V43" s="51"/>
+      <c r="W43" s="51"/>
+      <c r="X43" s="51"/>
+      <c r="Y43" s="51"/>
+      <c r="Z43" s="51"/>
+      <c r="AA43" s="51"/>
+      <c r="AB43" s="51"/>
+      <c r="AC43" s="51"/>
+      <c r="AD43" s="51"/>
+      <c r="AE43" s="51"/>
+      <c r="AF43" s="51"/>
+      <c r="AG43" s="51"/>
+      <c r="AH43" s="51"/>
+      <c r="AI43" s="51"/>
+      <c r="AJ43" s="51"/>
+      <c r="AK43" s="51"/>
+      <c r="AL43" s="51"/>
+      <c r="AM43" s="51"/>
+      <c r="AN43" s="51"/>
+      <c r="AO43" s="51"/>
+      <c r="AP43" s="51"/>
+      <c r="AQ43" s="51"/>
+      <c r="AR43" s="51"/>
+      <c r="AS43" s="51"/>
+      <c r="AT43" s="51"/>
+      <c r="AU43" s="51"/>
+      <c r="AV43" s="51"/>
     </row>
     <row r="44" spans="2:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="14"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="46"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
-      <c r="X44" s="46"/>
-      <c r="Y44" s="46"/>
-      <c r="Z44" s="46"/>
-      <c r="AA44" s="46"/>
-      <c r="AB44" s="46"/>
-      <c r="AC44" s="46"/>
-      <c r="AD44" s="46"/>
-      <c r="AE44" s="46"/>
-      <c r="AF44" s="46"/>
-      <c r="AG44" s="46"/>
-      <c r="AH44" s="46"/>
-      <c r="AI44" s="46"/>
-      <c r="AJ44" s="46"/>
-      <c r="AK44" s="46"/>
-      <c r="AL44" s="46"/>
-      <c r="AM44" s="46"/>
-      <c r="AN44" s="46"/>
-      <c r="AO44" s="46"/>
-      <c r="AP44" s="46"/>
-      <c r="AQ44" s="46"/>
-      <c r="AR44" s="46"/>
-      <c r="AS44" s="46"/>
-      <c r="AT44" s="46"/>
-      <c r="AU44" s="46"/>
-      <c r="AV44" s="46"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="54"/>
+      <c r="X44" s="54"/>
+      <c r="Y44" s="54"/>
+      <c r="Z44" s="54"/>
+      <c r="AA44" s="54"/>
+      <c r="AB44" s="54"/>
+      <c r="AC44" s="54"/>
+      <c r="AD44" s="54"/>
+      <c r="AE44" s="54"/>
+      <c r="AF44" s="54"/>
+      <c r="AG44" s="54"/>
+      <c r="AH44" s="54"/>
+      <c r="AI44" s="54"/>
+      <c r="AJ44" s="54"/>
+      <c r="AK44" s="54"/>
+      <c r="AL44" s="54"/>
+      <c r="AM44" s="54"/>
+      <c r="AN44" s="54"/>
+      <c r="AO44" s="54"/>
+      <c r="AP44" s="54"/>
+      <c r="AQ44" s="54"/>
+      <c r="AR44" s="54"/>
+      <c r="AS44" s="54"/>
+      <c r="AT44" s="54"/>
+      <c r="AU44" s="54"/>
+      <c r="AV44" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C24:F33"/>
-    <mergeCell ref="G24:AV33"/>
-    <mergeCell ref="C35:F44"/>
-    <mergeCell ref="G35:AV44"/>
-    <mergeCell ref="C12:F16"/>
-    <mergeCell ref="C18:F22"/>
-    <mergeCell ref="G18:AB22"/>
-    <mergeCell ref="G12:AB16"/>
     <mergeCell ref="C9:F10"/>
     <mergeCell ref="G9:N10"/>
     <mergeCell ref="Q9:T10"/>
@@ -32138,6 +32176,14 @@
     <mergeCell ref="Q6:T7"/>
     <mergeCell ref="U6:AB7"/>
     <mergeCell ref="AG6:AU7"/>
+    <mergeCell ref="C24:F33"/>
+    <mergeCell ref="G24:AV33"/>
+    <mergeCell ref="C35:F44"/>
+    <mergeCell ref="G35:AV44"/>
+    <mergeCell ref="C12:F16"/>
+    <mergeCell ref="C18:F22"/>
+    <mergeCell ref="G18:AB22"/>
+    <mergeCell ref="G12:AB16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
